--- a/output/电动载人汽车出口.xlsx
+++ b/output/电动载人汽车出口.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-6月金额</t>
+          <t>2024年1-7月金额</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-6月占比</t>
+          <t>2024年1-7月占比</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -510,10 +510,10 @@
         <v>0.1855301689194779</v>
       </c>
       <c r="H2" t="n">
-        <v>88.94000000000001</v>
+        <v>117.47</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1900427350427351</v>
+        <v>0.2094312711713318</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>0.183056764224145</v>
       </c>
       <c r="H3" t="n">
-        <v>84.78</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1811538461538462</v>
+        <v>0.1701907648422179</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
         <v>0.1695481693496352</v>
       </c>
       <c r="H4" t="n">
-        <v>43.68</v>
+        <v>45.53</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.08117311463719024</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         <v>0.0911189054150191</v>
       </c>
       <c r="H5" t="n">
-        <v>61.07</v>
+        <v>62.78</v>
       </c>
       <c r="I5" t="n">
-        <v>0.130491452991453</v>
+        <v>0.1119272597610982</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -654,10 +654,10 @@
         <v>0.088116076303294</v>
       </c>
       <c r="H6" t="n">
-        <v>26.61</v>
+        <v>35.28</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05685897435897436</v>
+        <v>0.06289891246211446</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -690,10 +690,10 @@
         <v>0.06181857287030755</v>
       </c>
       <c r="H7" t="n">
-        <v>26.81</v>
+        <v>36.92</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05728632478632478</v>
+        <v>0.06582278481012659</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -726,10 +726,10 @@
         <v>0.0387720662442301</v>
       </c>
       <c r="H8" t="n">
-        <v>7.58</v>
+        <v>10.18</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0161965811965812</v>
+        <v>0.01814940274558745</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         <v>0.02062273546978145</v>
       </c>
       <c r="H9" t="n">
-        <v>4.94</v>
+        <v>5.13</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01055555555555556</v>
+        <v>0.009146015332501338</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -798,10 +798,10 @@
         <v>0.01801697467035058</v>
       </c>
       <c r="H10" t="n">
-        <v>11.46</v>
+        <v>13.53</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02448717948717949</v>
+        <v>0.02412194687110002</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         <v>0.01771917343612991</v>
       </c>
       <c r="H11" t="n">
-        <v>39.66</v>
+        <v>52.92</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08474358974358974</v>
+        <v>0.09434836869317169</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -870,10 +870,10 @@
         <v>0.01728074384130503</v>
       </c>
       <c r="H12" t="n">
-        <v>7.95</v>
+        <v>8.91</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01698717948717949</v>
+        <v>0.01588518452487074</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         <v>0.01546084740995649</v>
       </c>
       <c r="H13" t="n">
-        <v>8.620000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01841880341880342</v>
+        <v>0.01693706543055803</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -942,10 +942,10 @@
         <v>0.01146534751749582</v>
       </c>
       <c r="H14" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002820512820512821</v>
+        <v>0.002549474059547157</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -978,10 +978,10 @@
         <v>0.01077047797098092</v>
       </c>
       <c r="H15" t="n">
-        <v>8.949999999999999</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01912393162393162</v>
+        <v>0.01700837939026564</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>0.01</v>
       </c>
       <c r="I16" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>0.009554456264579852</v>
       </c>
       <c r="H17" t="n">
-        <v>5.17</v>
+        <v>6.12</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01104700854700855</v>
+        <v>0.01091103583526475</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1086,10 +1086,10 @@
         <v>0.009331105338914349</v>
       </c>
       <c r="H18" t="n">
-        <v>9.35</v>
+        <v>10.47</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01997863247863248</v>
+        <v>0.01866642895346764</v>
       </c>
       <c r="J18" t="inlineStr"/>
     </row>
@@ -1118,10 +1118,10 @@
         <v>0.007866915937329385</v>
       </c>
       <c r="H19" t="n">
-        <v>6.3</v>
+        <v>6.62</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01346153846153846</v>
+        <v>0.01180246033160991</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         <v>0.005972569197425673</v>
       </c>
       <c r="H20" t="n">
-        <v>4.84</v>
+        <v>7.1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01034188034188034</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
         <v>0.005608589911155965</v>
       </c>
       <c r="H21" t="n">
-        <v>3.82</v>
+        <v>7.04</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008162393162393162</v>
+        <v>0.01255125690853985</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>0.25</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0005341880341880342</v>
+        <v>0.0004457122481725798</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1262,10 +1262,10 @@
         <v>0.00225832602617342</v>
       </c>
       <c r="H23" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0002564102564102564</v>
+        <v>0.0003565697985380638</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1298,10 +1298,10 @@
         <v>0.002134242178581473</v>
       </c>
       <c r="H24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002158119658119658</v>
+        <v>0.001854162952397932</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1334,10 +1334,10 @@
         <v>0.001894346739903711</v>
       </c>
       <c r="H25" t="n">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>0.005021367521367522</v>
+        <v>0.005170262078801925</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         <v>0.001489006171103353</v>
       </c>
       <c r="H26" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0007051282051282052</v>
+        <v>0.0006418256373685149</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>0.22</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0004700854700854701</v>
+        <v>0.0003922267783918702</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1420,20 +1420,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>哥伦比亚</t>
+          <t>缅甸</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02399520095980804</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6.31711939355654e-05</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0.79</v>
@@ -1442,34 +1442,34 @@
         <v>0.0006535082639842496</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0001495726495726496</v>
+        <v>0.001533250133713675</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>缅甸</t>
+          <t>哥伦比亚</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.02399520095980804</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>6.31711939355654e-05</v>
       </c>
       <c r="F29" t="n">
         <v>0.79</v>
@@ -1478,14 +1478,14 @@
         <v>0.0006535082639842496</v>
       </c>
       <c r="H29" t="n">
-        <v>0.73</v>
+        <v>0.29</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00155982905982906</v>
+        <v>0.0005170262078801925</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.0006452360074781199</v>
       </c>
       <c r="H30" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0004487179487179487</v>
+        <v>0.0004457122481725798</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1550,10 +1550,10 @@
         <v>0.0005459689294045629</v>
       </c>
       <c r="H31" t="n">
-        <v>0.78</v>
+        <v>1.01</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001800677482617222</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1586,10 +1586,10 @@
         <v>0.0005376966728984332</v>
       </c>
       <c r="H32" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="I32" t="n">
-        <v>0.001367521367521368</v>
+        <v>0.001176680335175611</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
         <v>0.0004715186208493953</v>
       </c>
       <c r="H33" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0007692307692307692</v>
+        <v>0.0007844535567837405</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1658,10 +1658,10 @@
         <v>0.000446701851331006</v>
       </c>
       <c r="H34" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0002564102564102564</v>
+        <v>0.0002495988589766447</v>
       </c>
       <c r="J34" t="inlineStr"/>
     </row>
@@ -1690,10 +1690,10 @@
         <v>0.0004384295948248763</v>
       </c>
       <c r="H35" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0007051282051282051</v>
+        <v>0.0006418256373685149</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>0.08</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0001709401709401709</v>
+        <v>0.0001426279194152255</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1762,10 +1762,10 @@
         <v>0.000413612825306487</v>
       </c>
       <c r="H37" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="I37" t="n">
-        <v>0.003205128205128205</v>
+        <v>0.002977357817792833</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1798,10 +1798,10 @@
         <v>0.0003722515427758383</v>
       </c>
       <c r="H38" t="n">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="I38" t="n">
-        <v>0.001538461538461538</v>
+        <v>0.001604564093421287</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1834,10 +1834,10 @@
         <v>0.0003474347732574491</v>
       </c>
       <c r="H39" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I39" t="n">
-        <v>0.000235042735042735</v>
+        <v>0.0002495988589766447</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         <v>0.0002729844647022815</v>
       </c>
       <c r="H40" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0001923076923076923</v>
+        <v>0.0002139418791228383</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>6.41025641025641e-05</v>
+        <v>5.348546978070957e-05</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>摩尔多瓦</t>
+          <t>巴基斯坦</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1962,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.263423878711308e-05</v>
       </c>
       <c r="F43" t="n">
         <v>0.27</v>
@@ -1974,21 +1974,21 @@
         <v>0.000223350925665503</v>
       </c>
       <c r="H43" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I43" t="n">
-        <v>0.000235042735042735</v>
+        <v>5.348546978070957e-05</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>巴基斯坦</t>
+          <t>摩尔多瓦</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1998,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.263423878711308e-05</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0.27</v>
@@ -2010,14 +2010,14 @@
         <v>0.000223350925665503</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="I44" t="n">
-        <v>6.41025641025641e-05</v>
+        <v>0.0001961133891959351</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
@@ -2046,10 +2046,10 @@
         <v>0.0002150786691593733</v>
       </c>
       <c r="H45" t="n">
-        <v>2.01</v>
+        <v>2.34</v>
       </c>
       <c r="I45" t="n">
-        <v>0.004294871794871795</v>
+        <v>0.004171866642895347</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2082,10 +2082,10 @@
         <v>0.0002150786691593733</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0001068376068376068</v>
+        <v>0.0001069709395614192</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>0.44</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0009401709401709402</v>
+        <v>0.0007844535567837405</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>0.01</v>
       </c>
       <c r="I48" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2168,20 +2168,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>俄罗斯</t>
+          <t>瑞典</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.03839232153569286</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="E49" t="n">
-        <v>3.790271636133924e-05</v>
+        <v>0.0001010739102969046</v>
       </c>
       <c r="F49" t="n">
         <v>0.24</v>
@@ -2190,10 +2190,10 @@
         <v>0.0001985341561471138</v>
       </c>
       <c r="H49" t="n">
-        <v>0.51</v>
+        <v>0.21</v>
       </c>
       <c r="I49" t="n">
-        <v>0.00108974358974359</v>
+        <v>0.000374398288464967</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2204,20 +2204,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>瑞典</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03839232153569286</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0001010739102969046</v>
+        <v>3.790271636133924e-05</v>
       </c>
       <c r="F50" t="n">
         <v>0.24</v>
@@ -2226,10 +2226,10 @@
         <v>0.0001985341561471138</v>
       </c>
       <c r="H50" t="n">
-        <v>0.17</v>
+        <v>0.62</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0003632478632478632</v>
+        <v>0.001105366375467998</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2262,10 +2262,10 @@
         <v>0.0001819896431348543</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I51" t="n">
-        <v>8.547008547008547e-05</v>
+        <v>0.0001069709395614191</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>阿鲁巴</t>
+          <t>摩洛哥</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>5.053695514845231e-05</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0.22</v>
@@ -2298,17 +2298,21 @@
         <v>0.0001819896431348543</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0001282051282051282</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>8.914244963451596e-05</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>摩洛哥</t>
+          <t>阿鲁巴</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2318,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>5.053695514845231e-05</v>
       </c>
       <c r="F53" t="n">
         <v>0.22</v>
@@ -2330,16 +2334,12 @@
         <v>0.0001819896431348543</v>
       </c>
       <c r="H53" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I53" t="n">
-        <v>8.547008547008547e-05</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+        <v>0.0001069709395614192</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2369,7 +2369,7 @@
         <v>0.08</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0001709401709401709</v>
+        <v>0.0001426279194152255</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2402,10 +2402,10 @@
         <v>0.0001075393345796866</v>
       </c>
       <c r="H55" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0001709401709401709</v>
+        <v>0.0001604564093421287</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>0.04</v>
       </c>
       <c r="I57" t="n">
-        <v>8.547008547008547e-05</v>
+        <v>7.131395970761276e-05</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         <v>7.445030855516767e-05</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0001282051282051282</v>
+        <v>0.0001247994294883224</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>百慕大</t>
+          <t>吉布提</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2534,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>2.526847757422616e-05</v>
       </c>
       <c r="F59" t="n">
         <v>0.08</v>
@@ -2546,17 +2546,21 @@
         <v>6.617805204903793e-05</v>
       </c>
       <c r="H59" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I59" t="n">
-        <v>4.273504273504274e-05</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0.0001604564093421287</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>吉布提</t>
+          <t>百慕大</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2566,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>2.526847757422616e-05</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0.08</v>
@@ -2578,21 +2582,17 @@
         <v>6.617805204903793e-05</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0001709401709401709</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+        <v>3.565697985380638e-05</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>亚美尼亚(2023年起)</t>
+          <t>阿尔巴尼亚</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2614,17 +2614,21 @@
         <v>5.79057955429082e-05</v>
       </c>
       <c r="H61" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0003418803418803419</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>3.565697985380638e-05</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>阿尔巴尼亚</t>
+          <t>亚美尼亚(2023年起)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2646,16 +2650,12 @@
         <v>5.79057955429082e-05</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="I62" t="n">
-        <v>4.273504273504274e-05</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>欧洲</t>
-        </is>
-      </c>
+        <v>0.0003565697985380638</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2682,10 +2682,10 @@
         <v>5.790579554290818e-05</v>
       </c>
       <c r="H63" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I63" t="n">
-        <v>6.41025641025641e-05</v>
+        <v>8.914244963451596e-05</v>
       </c>
       <c r="J63" t="inlineStr"/>
     </row>
@@ -2728,20 +2728,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>老挝</t>
+          <t>塞舌尔</t>
         </is>
       </c>
       <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
         <v>0.02</v>
       </c>
-      <c r="C65" t="n">
-        <v>0.001199760047990402</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.05</v>
-      </c>
       <c r="E65" t="n">
-        <v>6.31711939355654e-05</v>
+        <v>2.526847757422616e-05</v>
       </c>
       <c r="F65" t="n">
         <v>0.06</v>
@@ -2750,14 +2750,14 @@
         <v>4.963353903677845e-05</v>
       </c>
       <c r="H65" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0003632478632478632</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
         <v>0.02</v>
       </c>
       <c r="I66" t="n">
-        <v>4.273504273504274e-05</v>
+        <v>3.565697985380638e-05</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2800,20 +2800,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>塞舌尔</t>
+          <t>老挝</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>0.001199760047990402</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E67" t="n">
-        <v>2.526847757422616e-05</v>
+        <v>6.31711939355654e-05</v>
       </c>
       <c r="F67" t="n">
         <v>0.06</v>
@@ -2822,14 +2822,14 @@
         <v>4.963353903677845e-05</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>0.0003387413086111606</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -2861,14 +2861,14 @@
         <v>0.02</v>
       </c>
       <c r="I68" t="n">
-        <v>4.273504273504274e-05</v>
+        <v>3.565697985380638e-05</v>
       </c>
       <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>罗马尼亚</t>
+          <t>阿曼</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2890,21 +2890,21 @@
         <v>4.136128253064871e-05</v>
       </c>
       <c r="H69" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>阿曼</t>
+          <t>罗马尼亚</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2926,14 +2926,14 @@
         <v>4.136128253064871e-05</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>5.348546978070957e-05</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
@@ -2976,14 +2976,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>多米尼加</t>
+          <t>中国澳门</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0005998800239952009</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -2998,24 +2998,28 @@
         <v>3.308902602451897e-05</v>
       </c>
       <c r="H72" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="I72" t="n">
-        <v>4.273504273504274e-05</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0.0004278837582456766</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>巴勒斯坦</t>
+          <t>多米尼加</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>0.0005998800239952009</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3030,21 +3034,17 @@
         <v>3.308902602451897e-05</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>6.41025641025641e-05</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+        <v>3.565697985380638e-05</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>中国澳门</t>
+          <t>巴勒斯坦</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3066,10 +3066,10 @@
         <v>3.308902602451897e-05</v>
       </c>
       <c r="H74" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0002564102564102564</v>
+        <v>5.348546978070957e-05</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3134,10 +3134,10 @@
         <v>2.481676951838922e-05</v>
       </c>
       <c r="H76" t="n">
-        <v>0.08</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0001709401709401709</v>
+        <v>0.0001782848992690319</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3170,10 +3170,10 @@
         <v>2.481676951838922e-05</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I77" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>5.348546978070957e-05</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>0.08</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0001709401709401709</v>
+        <v>0.0001426279194152255</v>
       </c>
       <c r="J78" t="inlineStr"/>
     </row>
@@ -3241,7 +3241,7 @@
         <v>0.01</v>
       </c>
       <c r="I79" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>古巴</t>
+          <t>塔吉克斯坦</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1.263423878711308e-05</v>
       </c>
       <c r="F80" t="n">
         <v>0.02</v>
@@ -3274,21 +3274,21 @@
         <v>1.654451301225948e-05</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0002136752136752137</v>
+        <v>0.0001961133891959351</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>牙买加</t>
+          <t>卢森堡</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3310,21 +3310,21 @@
         <v>1.654451301225948e-05</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.0009627384560527725</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>沙特阿拉伯</t>
+          <t>牙买加</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3346,21 +3346,21 @@
         <v>1.654451301225948e-05</v>
       </c>
       <c r="H82" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>4.273504273504274e-05</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>塔吉克斯坦</t>
+          <t>古巴</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3370,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1.263423878711308e-05</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0.02</v>
@@ -3382,21 +3382,21 @@
         <v>1.654451301225948e-05</v>
       </c>
       <c r="H83" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0002136752136752136</v>
+        <v>0.0001782848992690319</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>卢森堡</t>
+          <t>沙特阿拉伯</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3418,14 +3418,14 @@
         <v>1.654451301225948e-05</v>
       </c>
       <c r="H84" t="n">
-        <v>0.54</v>
+        <v>0.03</v>
       </c>
       <c r="I84" t="n">
-        <v>0.001153846153846154</v>
+        <v>5.348546978070957e-05</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -3490,10 +3490,10 @@
         <v>8.272256506129742e-06</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>0.01</v>
       </c>
       <c r="I87" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>秘鲁</t>
+          <t>巴林</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3562,21 +3562,21 @@
         <v>8.272256506129742e-06</v>
       </c>
       <c r="H88" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>卡塔尔</t>
+          <t>秘鲁</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3598,21 +3598,21 @@
         <v>8.272256506129742e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>0.47</v>
+        <v>0.01</v>
       </c>
       <c r="I89" t="n">
-        <v>0.001004273504273504</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>中国台湾</t>
+          <t>卡塔尔</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3634,17 +3634,21 @@
         <v>8.272256506129742e-06</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0.0008557675164913532</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>斐济</t>
+          <t>中国台湾</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3666,21 +3670,17 @@
         <v>8.272256506129742e-06</v>
       </c>
       <c r="H91" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>2.136752136752137e-05</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>大洋洲</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>巴布亚新几内亚</t>
+          <t>斐济</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3705,7 +3705,7 @@
         <v>0.01</v>
       </c>
       <c r="I92" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>巴林</t>
+          <t>巴布亚新几内亚</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3738,21 +3738,21 @@
         <v>8.272256506129742e-06</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>瑞士</t>
+          <t>萨尔瓦多</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3762,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>2.526847757422616e-05</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3774,34 +3774,34 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>越南</t>
+          <t>葡萄牙</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.005998800239952009</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>0.0001137081490840177</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3810,28 +3810,28 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>萨尔瓦多</t>
+          <t>伊朗</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>0.0005998800239952009</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -3846,21 +3846,21 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>葡萄牙</t>
+          <t>芬兰</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3870,10 +3870,10 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0001137081490840177</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -3896,14 +3896,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>伊朗</t>
+          <t>赞比亚</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0005998800239952009</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -3925,21 +3925,21 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>赞比亚</t>
+          <t>越南</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>0.005998800239952009</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -3954,21 +3954,21 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>0.0002317703690497415</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>密克罗尼西亚联邦</t>
+          <t>伊拉克</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3990,34 +3990,34 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>伊拉克</t>
+          <t>亚美尼亚(2023年起停用)</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>0.001199760047990402</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>7.580543272267847e-05</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4031,16 +4031,12 @@
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>尼日利亚</t>
+          <t>乌干达</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4076,20 +4072,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>亚美尼亚(2023年起停用)</t>
+          <t>保加利亚</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.001199760047990402</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>7.580543272267847e-05</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4103,12 +4099,16 @@
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>乌干达</t>
+          <t>刚果民主共和国</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -4118,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1.263423878711308e-05</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -4202,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I106" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>7.131395970761276e-05</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>保加利亚</t>
+          <t>加纳</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -4238,21 +4238,21 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>刚果民主共和国</t>
+          <t>巴拉圭</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -4262,33 +4262,33 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.01</v>
       </c>
-      <c r="E108" t="n">
-        <v>1.263423878711308e-05</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>加纳</t>
+          <t>肯尼亚</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4324,7 +4324,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>芬兰</t>
+          <t>南非</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -4346,21 +4346,21 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>肯尼亚</t>
+          <t>尼日利亚</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -4382,10 +4382,10 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>3.565697985380638e-05</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>孟加拉国</t>
+          <t>密克罗尼西亚联邦</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4425,14 +4425,14 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>委内瑞拉</t>
+          <t>孟加拉国</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4454,21 +4454,21 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>奥地利</t>
+          <t>委内瑞拉</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4478,33 +4478,33 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
         <v>0.01</v>
       </c>
-      <c r="E114" t="n">
-        <v>1.263423878711308e-05</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>南非</t>
+          <t>奥地利</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4514,10 +4514,10 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1.263423878711308e-05</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>立陶宛</t>
+          <t>格林纳达</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4605,14 +4605,14 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>格林纳达</t>
+          <t>埃塞俄比亚</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4634,21 +4634,21 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>5.348546978070957e-05</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>埃塞俄比亚</t>
+          <t>坦桑尼亚</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4673,7 +4673,7 @@
         <v>0.01</v>
       </c>
       <c r="I119" t="n">
-        <v>2.136752136752137e-05</v>
+        <v>1.782848992690319e-05</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>坦桑尼亚</t>
+          <t>法属圭亚那</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4706,16 +4706,12 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>2.136752136752137e-05</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4828,7 +4824,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>巴拉圭</t>
+          <t>瑞士</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4838,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>2.526847757422616e-05</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4850,16 +4846,84 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>立陶宛</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>瓜德罗普</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
         <v>0.01</v>
       </c>
-      <c r="I124" t="n">
-        <v>2.136752136752137e-05</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
+      <c r="I126" t="n">
+        <v>1.782848992690319e-05</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/电动载人汽车出口.xlsx
+++ b/output/电动载人汽车出口.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-7月金额</t>
+          <t>2024年1-8月金额</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-7月占比</t>
+          <t>2024年1-8月占比</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -510,10 +510,10 @@
         <v>0.1855301689194779</v>
       </c>
       <c r="H2" t="n">
-        <v>117.47</v>
+        <v>133.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2094312711713318</v>
+        <v>0.2051053907280705</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>0.183056764224145</v>
       </c>
       <c r="H3" t="n">
-        <v>95.45999999999999</v>
+        <v>100.38</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1701907648422179</v>
+        <v>0.1539901205780382</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
         <v>0.1695481693496352</v>
       </c>
       <c r="H4" t="n">
-        <v>45.53</v>
+        <v>48</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08117311463719024</v>
+        <v>0.07363544319332373</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         <v>0.0911189054150191</v>
       </c>
       <c r="H5" t="n">
-        <v>62.78</v>
+        <v>64.27000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1119272597610982</v>
+        <v>0.0985947902923941</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -654,10 +654,10 @@
         <v>0.088116076303294</v>
       </c>
       <c r="H6" t="n">
-        <v>35.28</v>
+        <v>57.33</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06289891246211446</v>
+        <v>0.08794833246402603</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -690,10 +690,10 @@
         <v>0.06181857287030755</v>
       </c>
       <c r="H7" t="n">
-        <v>36.92</v>
+        <v>48.31</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06582278481012659</v>
+        <v>0.07411100543061395</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -726,10 +726,10 @@
         <v>0.0387720662442301</v>
       </c>
       <c r="H8" t="n">
-        <v>10.18</v>
+        <v>11.34</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01814940274558745</v>
+        <v>0.01739637345442273</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         <v>0.02062273546978145</v>
       </c>
       <c r="H9" t="n">
-        <v>5.13</v>
+        <v>5.18</v>
       </c>
       <c r="I9" t="n">
-        <v>0.009146015332501338</v>
+        <v>0.007946491577946186</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -798,10 +798,10 @@
         <v>0.01801697467035058</v>
       </c>
       <c r="H10" t="n">
-        <v>13.53</v>
+        <v>15.09</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02412194687110002</v>
+        <v>0.02314914245390115</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         <v>0.01771917343612991</v>
       </c>
       <c r="H11" t="n">
-        <v>52.92</v>
+        <v>58.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09434836869317169</v>
+        <v>0.08928297487190502</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -870,10 +870,10 @@
         <v>0.01728074384130503</v>
       </c>
       <c r="H12" t="n">
-        <v>8.91</v>
+        <v>10.64</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01588518452487074</v>
+        <v>0.01632252324118676</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         <v>0.01546084740995649</v>
       </c>
       <c r="H13" t="n">
-        <v>9.5</v>
+        <v>10.67</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01693706543055803</v>
+        <v>0.01636854539318259</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -942,10 +942,10 @@
         <v>0.01146534751749582</v>
       </c>
       <c r="H14" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002549474059547157</v>
+        <v>0.002393151903783022</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -978,10 +978,10 @@
         <v>0.01077047797098092</v>
       </c>
       <c r="H15" t="n">
-        <v>9.539999999999999</v>
+        <v>10.49</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01700837939026564</v>
+        <v>0.01609241248120762</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1014,10 +1014,10 @@
         <v>0.009719901394702446</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01</v>
+        <v>1.35</v>
       </c>
       <c r="I16" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>0.00207099683981223</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>0.009554456264579852</v>
       </c>
       <c r="H17" t="n">
-        <v>6.12</v>
+        <v>7.64</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01091103583526475</v>
+        <v>0.01172030804160403</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1086,10 +1086,10 @@
         <v>0.009331105338914349</v>
       </c>
       <c r="H18" t="n">
-        <v>10.47</v>
+        <v>12.4</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01866642895346764</v>
+        <v>0.01902248949160863</v>
       </c>
       <c r="J18" t="inlineStr"/>
     </row>
@@ -1118,10 +1118,10 @@
         <v>0.007866915937329385</v>
       </c>
       <c r="H19" t="n">
-        <v>6.62</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01180246033160991</v>
+        <v>0.01244132175620532</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         <v>0.005972569197425673</v>
       </c>
       <c r="H20" t="n">
-        <v>7.1</v>
+        <v>8.82</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01265822784810127</v>
+        <v>0.01353051268677324</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
         <v>0.005608589911155965</v>
       </c>
       <c r="H21" t="n">
-        <v>7.04</v>
+        <v>15.94</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01255125690853985</v>
+        <v>0.02445310342711626</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1226,10 +1226,10 @@
         <v>0.003027645881243486</v>
       </c>
       <c r="H22" t="n">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0004457122481725798</v>
+        <v>0.0007056729972693525</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>0.2</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0003565697985380638</v>
+        <v>0.0003068143466388489</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1298,10 +1298,10 @@
         <v>0.002134242178581473</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001854162952397932</v>
+        <v>0.001687478906513669</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1334,10 +1334,10 @@
         <v>0.001894346739903711</v>
       </c>
       <c r="H25" t="n">
-        <v>2.9</v>
+        <v>3.69</v>
       </c>
       <c r="I25" t="n">
-        <v>0.005170262078801925</v>
+        <v>0.005660724695486762</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         <v>0.001489006171103353</v>
       </c>
       <c r="H26" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0006418256373685149</v>
+        <v>0.0005676065412818705</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1406,10 +1406,10 @@
         <v>0.001340105553993018</v>
       </c>
       <c r="H27" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0003922267783918702</v>
+        <v>0.0003528364986346762</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1420,20 +1420,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>缅甸</t>
+          <t>哥伦比亚</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.02399520095980804</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.31711939355654e-05</v>
       </c>
       <c r="F28" t="n">
         <v>0.79</v>
@@ -1442,34 +1442,34 @@
         <v>0.0006535082639842496</v>
       </c>
       <c r="H28" t="n">
-        <v>0.86</v>
+        <v>0.29</v>
       </c>
       <c r="I28" t="n">
-        <v>0.001533250133713675</v>
+        <v>0.0004448808026263308</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>哥伦比亚</t>
+          <t>缅甸</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02399520095980804</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.31711939355654e-05</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0.79</v>
@@ -1478,14 +1478,14 @@
         <v>0.0006535082639842496</v>
       </c>
       <c r="H29" t="n">
-        <v>0.29</v>
+        <v>0.89</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0005170262078801925</v>
+        <v>0.001365323842542878</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -1514,10 +1514,10 @@
         <v>0.0006452360074781199</v>
       </c>
       <c r="H30" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0004457122481725798</v>
+        <v>0.0004909029546221582</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1550,10 +1550,10 @@
         <v>0.0005459689294045629</v>
       </c>
       <c r="H31" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001800677482617222</v>
+        <v>0.002239744730463597</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1586,10 +1586,10 @@
         <v>0.0005376966728984332</v>
       </c>
       <c r="H32" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="I32" t="n">
-        <v>0.001176680335175611</v>
+        <v>0.001089190930567913</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>0.44</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0007844535567837405</v>
+        <v>0.0006749915626054675</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1658,10 +1658,10 @@
         <v>0.000446701851331006</v>
       </c>
       <c r="H34" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0002495988589766447</v>
+        <v>0.000276132911974964</v>
       </c>
       <c r="J34" t="inlineStr"/>
     </row>
@@ -1690,10 +1690,10 @@
         <v>0.0004384295948248763</v>
       </c>
       <c r="H35" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0006418256373685149</v>
+        <v>0.0005982879759457554</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         <v>0.0004218850818126168</v>
       </c>
       <c r="H36" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0001426279194152255</v>
+        <v>0.000138066455987482</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1762,10 +1762,10 @@
         <v>0.000413612825306487</v>
       </c>
       <c r="H37" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="I37" t="n">
-        <v>0.002977357817792833</v>
+        <v>0.002853373423741295</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1798,10 +1798,10 @@
         <v>0.0003722515427758383</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="I38" t="n">
-        <v>0.001604564093421287</v>
+        <v>0.001672138189181727</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>0.14</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0002495988589766447</v>
+        <v>0.0002147700426471942</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>0.12</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0002139418791228383</v>
+        <v>0.0001840886079833093</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>5.348546978070957e-05</v>
+        <v>4.602215199582733e-05</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1942,17 +1942,17 @@
         <v>0.0002398954386777625</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.068143466388489e-05</v>
       </c>
       <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>巴基斯坦</t>
+          <t>摩尔多瓦</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1962,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.263423878711308e-05</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0.27</v>
@@ -1974,21 +1974,21 @@
         <v>0.000223350925665503</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="I43" t="n">
-        <v>5.348546978070957e-05</v>
+        <v>0.0002147700426471942</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>摩尔多瓦</t>
+          <t>巴基斯坦</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1998,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.263423878711308e-05</v>
       </c>
       <c r="F44" t="n">
         <v>0.27</v>
@@ -2010,14 +2010,14 @@
         <v>0.000223350925665503</v>
       </c>
       <c r="H44" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0001961133891959351</v>
+        <v>6.136286932776978e-05</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -2046,10 +2046,10 @@
         <v>0.0002150786691593733</v>
       </c>
       <c r="H45" t="n">
-        <v>2.34</v>
+        <v>2.8</v>
       </c>
       <c r="I45" t="n">
-        <v>0.004171866642895347</v>
+        <v>0.004295400852943884</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2082,10 +2082,10 @@
         <v>0.0002150786691593733</v>
       </c>
       <c r="H46" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0001069709395614192</v>
+        <v>0.0001227257386555396</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2118,10 +2118,10 @@
         <v>0.0002068064126532435</v>
       </c>
       <c r="H47" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0007844535567837405</v>
+        <v>0.00069033227993741</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         <v>0.0001985341561471138</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="I48" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>0.0001227257386555396</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2190,10 +2190,10 @@
         <v>0.0001985341561471138</v>
       </c>
       <c r="H49" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I49" t="n">
-        <v>0.000374398288464967</v>
+        <v>0.0003681772159666186</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2226,10 +2226,10 @@
         <v>0.0001985341561471138</v>
       </c>
       <c r="H50" t="n">
-        <v>0.62</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>0.001105366375467998</v>
+        <v>0.001273279538551223</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2262,10 +2262,10 @@
         <v>0.0001819896431348543</v>
       </c>
       <c r="H51" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0001069709395614191</v>
+        <v>0.000138066455987482</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>摩洛哥</t>
+          <t>阿鲁巴</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>5.053695514845231e-05</v>
       </c>
       <c r="F52" t="n">
         <v>0.22</v>
@@ -2298,21 +2298,17 @@
         <v>0.0001819896431348543</v>
       </c>
       <c r="H52" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I52" t="n">
-        <v>8.914244963451596e-05</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+        <v>9.204430399165467e-05</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>阿鲁巴</t>
+          <t>摩洛哥</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2322,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>5.053695514845231e-05</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0.22</v>
@@ -2334,12 +2330,16 @@
         <v>0.0001819896431348543</v>
       </c>
       <c r="H53" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0001069709395614192</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>7.670358665971222e-05</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2366,10 +2366,10 @@
         <v>0.0001737173866287246</v>
       </c>
       <c r="H54" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0001426279194152255</v>
+        <v>0.0002147700426471942</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>0.09</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0001604564093421287</v>
+        <v>0.000138066455987482</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>1.534071733194244e-05</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>0.04</v>
       </c>
       <c r="I57" t="n">
-        <v>7.131395970761276e-05</v>
+        <v>6.136286932776978e-05</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0001247994294883224</v>
+        <v>0.0001073850213235971</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>0.09</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0001604564093421287</v>
+        <v>0.000138066455987482</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2585,14 +2585,14 @@
         <v>0.02</v>
       </c>
       <c r="I60" t="n">
-        <v>3.565697985380638e-05</v>
+        <v>3.068143466388489e-05</v>
       </c>
       <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>阿尔巴尼亚</t>
+          <t>亚美尼亚(2023年起)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2614,21 +2614,17 @@
         <v>5.79057955429082e-05</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="I61" t="n">
-        <v>3.565697985380638e-05</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>欧洲</t>
-        </is>
-      </c>
+        <v>0.0003988586506305036</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>亚美尼亚(2023年起)</t>
+          <t>阿尔巴尼亚</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2650,12 +2646,16 @@
         <v>5.79057955429082e-05</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0003565697985380638</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>3.068143466388489e-05</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2685,14 +2685,14 @@
         <v>0.05</v>
       </c>
       <c r="I63" t="n">
-        <v>8.914244963451596e-05</v>
+        <v>7.670358665971222e-05</v>
       </c>
       <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>印度</t>
+          <t>老挝</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2702,10 +2702,10 @@
         <v>0.001199760047990402</v>
       </c>
       <c r="D64" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0001137081490840177</v>
+        <v>6.31711939355654e-05</v>
       </c>
       <c r="F64" t="n">
         <v>0.06</v>
@@ -2714,10 +2714,10 @@
         <v>4.963353903677845e-05</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>0.0002914736293069064</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2764,20 +2764,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>库拉索</t>
+          <t>印度</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.001199760047990402</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>0.0001137081490840177</v>
       </c>
       <c r="F66" t="n">
         <v>0.06</v>
@@ -2786,34 +2786,34 @@
         <v>4.963353903677845e-05</v>
       </c>
       <c r="H66" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3.565697985380638e-05</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>老挝</t>
+          <t>库拉索</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001199760047990402</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>6.31711939355654e-05</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0.06</v>
@@ -2822,14 +2822,14 @@
         <v>4.963353903677845e-05</v>
       </c>
       <c r="H67" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0003387413086111606</v>
+        <v>3.068143466388489e-05</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
         <v>0.02</v>
       </c>
       <c r="I68" t="n">
-        <v>3.565697985380638e-05</v>
+        <v>3.068143466388489e-05</v>
       </c>
       <c r="J68" t="inlineStr"/>
     </row>
@@ -2929,7 +2929,7 @@
         <v>0.03</v>
       </c>
       <c r="I70" t="n">
-        <v>5.348546978070957e-05</v>
+        <v>4.602215199582733e-05</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>圭亚那</t>
+          <t>中国澳门</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2962,21 +2962,21 @@
         <v>3.308902602451897e-05</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>0.0005215843892860431</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>中国澳门</t>
+          <t>波多黎各</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2998,28 +2998,24 @@
         <v>3.308902602451897e-05</v>
       </c>
       <c r="H72" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0004278837582456766</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>多米尼加</t>
+          <t>圭亚那</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0005998800239952009</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3034,24 +3030,28 @@
         <v>3.308902602451897e-05</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>3.565697985380638e-05</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>巴勒斯坦</t>
+          <t>多米尼加</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>0.0005998800239952009</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -3066,21 +3066,17 @@
         <v>3.308902602451897e-05</v>
       </c>
       <c r="H74" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I74" t="n">
-        <v>5.348546978070957e-05</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+        <v>3.068143466388489e-05</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>波多黎各</t>
+          <t>巴勒斯坦</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3102,17 +3098,21 @@
         <v>3.308902602451897e-05</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>4.602215199582733e-05</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>蒙古</t>
+          <t>格鲁吉亚(2023年起)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1.263423878711308e-05</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0.03</v>
@@ -3134,16 +3134,12 @@
         <v>2.481676951838922e-05</v>
       </c>
       <c r="H76" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0001782848992690319</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+        <v>0.0001227257386555396</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3173,7 +3169,7 @@
         <v>0.03</v>
       </c>
       <c r="I77" t="n">
-        <v>5.348546978070957e-05</v>
+        <v>4.602215199582733e-05</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3184,7 +3180,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>格鲁吉亚(2023年起)</t>
+          <t>蒙古</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3194,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1.263423878711308e-05</v>
       </c>
       <c r="F78" t="n">
         <v>0.03</v>
@@ -3206,24 +3202,28 @@
         <v>2.481676951838922e-05</v>
       </c>
       <c r="H78" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0001426279194152255</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0.0001994293253152518</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>斯里兰卡</t>
+          <t>卢森堡</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.002999400119976005</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -3238,21 +3238,21 @@
         <v>1.654451301225948e-05</v>
       </c>
       <c r="H79" t="n">
-        <v>0.01</v>
+        <v>0.54</v>
       </c>
       <c r="I79" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>0.000828398735924892</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>塔吉克斯坦</t>
+          <t>牙买加</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>1.263423878711308e-05</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0.02</v>
@@ -3274,21 +3274,21 @@
         <v>1.654451301225948e-05</v>
       </c>
       <c r="H80" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0001961133891959351</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>卢森堡</t>
+          <t>沙特阿拉伯</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3310,21 +3310,21 @@
         <v>1.654451301225948e-05</v>
       </c>
       <c r="H81" t="n">
-        <v>0.54</v>
+        <v>0.03</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0009627384560527725</v>
+        <v>4.602215199582733e-05</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>牙买加</t>
+          <t>塔吉克斯坦</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3334,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1.263423878711308e-05</v>
       </c>
       <c r="F82" t="n">
         <v>0.02</v>
@@ -3346,14 +3346,14 @@
         <v>1.654451301225948e-05</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>0.0001840886079833093</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
         <v>0.1</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0001782848992690319</v>
+        <v>0.0001534071733194244</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3396,14 +3396,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>沙特阿拉伯</t>
+          <t>斯里兰卡</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>0.002999400119976005</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>1.654451301225948e-05</v>
       </c>
       <c r="H84" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I84" t="n">
-        <v>5.348546978070957e-05</v>
+        <v>1.534071733194244e-05</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>科特迪瓦</t>
+          <t>科威特</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3454,21 +3454,21 @@
         <v>8.272256506129742e-06</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1.534071733194244e-05</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>科威特</t>
+          <t>匈牙利</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3493,18 +3493,18 @@
         <v>0.01</v>
       </c>
       <c r="I86" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>1.534071733194244e-05</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>匈牙利</t>
+          <t>科特迪瓦</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3526,21 +3526,21 @@
         <v>8.272256506129742e-06</v>
       </c>
       <c r="H87" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>巴林</t>
+          <t>秘鲁</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3562,21 +3562,21 @@
         <v>8.272256506129742e-06</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1.534071733194244e-05</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>秘鲁</t>
+          <t>卡塔尔</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3598,21 +3598,21 @@
         <v>8.272256506129742e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>0.01</v>
+        <v>0.54</v>
       </c>
       <c r="I89" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>0.000828398735924892</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>卡塔尔</t>
+          <t>中国台湾</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3634,21 +3634,17 @@
         <v>8.272256506129742e-06</v>
       </c>
       <c r="H90" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0008557675164913532</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>中国台湾</t>
+          <t>斐济</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3670,17 +3666,21 @@
         <v>8.272256506129742e-06</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>1.534071733194244e-05</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>大洋洲</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>斐济</t>
+          <t>巴林</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3702,14 +3702,14 @@
         <v>8.272256506129742e-06</v>
       </c>
       <c r="H92" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
         <v>0.01</v>
       </c>
       <c r="I93" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>1.534071733194244e-05</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>萨尔瓦多</t>
+          <t>马提尼克</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3774,21 +3774,17 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>1.782848992690319e-05</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
+        <v>4.602215199582733e-05</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>葡萄牙</t>
+          <t>保加利亚</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3798,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0001137081490840177</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3824,14 +3820,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>伊朗</t>
+          <t>马达加斯加</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0005998800239952009</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -3846,21 +3842,21 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>7.670358665971222e-05</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>芬兰</t>
+          <t>萨尔瓦多</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3885,18 +3881,18 @@
         <v>0.01</v>
       </c>
       <c r="I97" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>1.534071733194244e-05</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>赞比亚</t>
+          <t>丹麦</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3906,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>0.0004927353126974101</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3925,27 +3921,27 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>越南</t>
+          <t>葡萄牙</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.005998800239952009</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.0001137081490840177</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3954,28 +3950,28 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0002317703690497415</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>伊拉克</t>
+          <t>伊朗</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>0.0005998800239952009</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -3990,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4004,20 +4000,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>亚美尼亚(2023年起停用)</t>
+          <t>赞比亚</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.001199760047990402</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>7.580543272267847e-05</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4031,12 +4027,16 @@
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>乌干达</t>
+          <t>马尔代夫</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4065,14 +4065,14 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>保加利亚</t>
+          <t>乌干达</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -4101,27 +4101,27 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>刚果民主共和国</t>
+          <t>亚美尼亚(2023年起停用)</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>0.001199760047990402</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E104" t="n">
-        <v>1.263423878711308e-05</v>
+        <v>7.580543272267847e-05</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -4135,16 +4135,12 @@
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>丹麦</t>
+          <t>阿尔及利亚</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4154,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0004927353126974101</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -4173,14 +4169,14 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>马达加斯加</t>
+          <t>伊拉克</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -4202,14 +4198,14 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I106" t="n">
-        <v>7.131395970761276e-05</v>
+        <v>9.204430399165466e-05</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4237,7 @@
         <v>0.01</v>
       </c>
       <c r="I107" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>1.534071733194244e-05</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -4252,14 +4248,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>巴拉圭</t>
+          <t>越南</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>0.005998800239952009</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -4274,21 +4270,21 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="I108" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>0.0001994293253152518</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>肯尼亚</t>
+          <t>刚果民主共和国</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4298,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1.263423878711308e-05</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4324,7 +4320,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>南非</t>
+          <t>巴拉圭</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -4346,21 +4342,21 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1.534071733194244e-05</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>尼日利亚</t>
+          <t>芬兰</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -4382,21 +4378,21 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I111" t="n">
-        <v>3.565697985380638e-05</v>
+        <v>1.534071733194244e-05</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>密克罗尼西亚联邦</t>
+          <t>肯尼亚</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4425,14 +4421,14 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>孟加拉国</t>
+          <t>尼日利亚</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4454,21 +4450,21 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>3.068143466388489e-05</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>委内瑞拉</t>
+          <t>密克罗尼西亚联邦</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4490,21 +4486,21 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>奥地利</t>
+          <t>孟加拉国</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4514,10 +4510,10 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>1.263423878711308e-05</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -4533,14 +4529,14 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>多哥</t>
+          <t>委内瑞拉</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -4562,21 +4558,21 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1.534071733194244e-05</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>格林纳达</t>
+          <t>奥地利</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4586,10 +4582,10 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1.263423878711308e-05</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -4605,14 +4601,14 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>埃塞俄比亚</t>
+          <t>多米尼克</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4634,21 +4630,21 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>5.348546978070957e-05</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>坦桑尼亚</t>
+          <t>多哥</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4670,10 +4666,10 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1.782848992690319e-05</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -4684,7 +4680,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>法属圭亚那</t>
+          <t>格林纳达</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4711,12 +4707,16 @@
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>北美洲</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>圣卢西亚</t>
+          <t>埃塞俄比亚</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -4738,21 +4738,21 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>6.136286932776978e-05</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>爱尔兰</t>
+          <t>坦桑尼亚</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -4774,21 +4774,21 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1.534071733194244e-05</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>玻利维亚</t>
+          <t>法属圭亚那</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -4810,21 +4810,17 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>南美洲</t>
-        </is>
-      </c>
+        <v>1.534071733194244e-05</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>瑞士</t>
+          <t>圣卢西亚</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4834,10 +4830,10 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>2.526847757422616e-05</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4853,14 +4849,14 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>立陶宛</t>
+          <t>爱尔兰</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4896,34 +4892,178 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>玻利维亚</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>南美洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
           <t>瓜德罗普</t>
         </is>
       </c>
-      <c r="B126" t="n">
-        <v>0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" t="n">
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3.068143466388489e-05</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>立陶宛</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>南非</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.01</v>
       </c>
-      <c r="I126" t="n">
-        <v>1.782848992690319e-05</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>1.534071733194244e-05</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>瑞士</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.526847757422616e-05</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
